--- a/Тесты БПР/Список тестов БПР.xlsx
+++ b/Тесты БПР/Список тестов БПР.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1С\resorce\FoxHost\Тесты БПР\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C39D9F-D20F-4F82-A812-6A1381825EE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD314717-3768-4E41-883C-42DEBBDBACEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{BBBFA537-FDD4-4A27-9A9A-280B76E02EF4}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="9024" activeTab="2" xr2:uid="{BBBFA537-FDD4-4A27-9A9A-280B76E02EF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>Список тестов</t>
   </si>
@@ -74,13 +75,85 @@
   </si>
   <si>
     <t>5. На демо-базе запустить тест печатных форм</t>
+  </si>
+  <si>
+    <t>Подсистема зарплата</t>
+  </si>
+  <si>
+    <t>1. Полное начисление и расчет налогов</t>
+  </si>
+  <si>
+    <t>Регистр Производственный календарь, заполнить</t>
+  </si>
+  <si>
+    <t>Справочник Графики работы, пятидневка, шестидневка, сменный, заполнить и записать.</t>
+  </si>
+  <si>
+    <t>Сценарии</t>
+  </si>
+  <si>
+    <t>Документ Начисление зарплаты, автозаполнение по всем сотрудникам, рассчитать, провести.</t>
+  </si>
+  <si>
+    <t>Документ Расчет удержаний сотруников, автозаполнение, рассчитать, провести.</t>
+  </si>
+  <si>
+    <t>Документ Расчет налогов, взносов и отчислений сотрудников, автозаполнение, рассчитать, провести.</t>
+  </si>
+  <si>
+    <t>2. Документ Начисление зарплаты</t>
+  </si>
+  <si>
+    <t>? - Как-то нужно затем удалить проведение документов.</t>
+  </si>
+  <si>
+    <t>Создать новый документ, указать организацию и дату, очистить подразделение (если заполнено)</t>
+  </si>
+  <si>
+    <t>Указать месяц начисления</t>
+  </si>
+  <si>
+    <t>Автозаполнение по всем сотрудникам, очистить</t>
+  </si>
+  <si>
+    <t>? - подготовить в базе виды начислений нескольких видов, в том числе от обратного</t>
+  </si>
+  <si>
+    <t>Автозаполнение по всем сотрудникам (расчет по среднему), очистить</t>
+  </si>
+  <si>
+    <t>Автозаполнение подбором сотрудников, очистить</t>
+  </si>
+  <si>
+    <t>В шапке указать вид начисления - доплата за праздничные, автозаполнение оплата праздничных, очистить, удалить из шапки вид начисления</t>
+  </si>
+  <si>
+    <t>Автозаполнение по табелю - выбрать табель в открывшемся окне, очистить</t>
+  </si>
+  <si>
+    <t>В шапке выбрать вид расчета Премия, над табличной частью кнопка Подбор, выбрать несколько сотрудников,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">затем над табличной частью кнопка Изменить, в указать размер - ОК, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">затем над табличной частью кнопка Заполнить период премии - указать период. Очистить </t>
+  </si>
+  <si>
+    <t>? - подготовить расчеты по среднему и табель, чтобы было что начислять</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Автозаполнение по всем сотрудникам, над табличнйо частью кнопка Заполнить по видам времени, </t>
+  </si>
+  <si>
+    <t>в открывшемся окне указать часы отраотанного времени нескольким сотрудникам, Перенести в документ, очистить</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,6 +173,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -134,11 +215,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -453,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC99472B-C425-4F39-B05A-01E7E81C2C18}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -502,6 +584,21 @@
         <v>7</v>
       </c>
     </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -512,7 +609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B3EFA8-A1D6-4D47-9349-15AD08F93244}">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -554,4 +651,137 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A8B6C5C-257F-4747-99EA-88651B00012F}">
+  <dimension ref="A1:A25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="60.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>